--- a/skript/zk.xlsx
+++ b/skript/zk.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\ubuntu-dbsm\home\dbsm\projekte\zeitkapsel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\ubuntu-dbsm\home\dbsm\projekte\zeitkapsel\skript\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>Jahr normiert</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>Verlagskürzel</t>
+  </si>
+  <si>
+    <t>Buchtüten</t>
+  </si>
+  <si>
+    <t>Gebrauchsgegenstand</t>
+  </si>
+  <si>
+    <t>Spielzeug</t>
+  </si>
+  <si>
+    <t>Textilien</t>
   </si>
 </sst>
 </file>
@@ -538,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -861,10 +873,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -965,6 +977,26 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/skript/zk.xlsx
+++ b/skript/zk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>Jahr normiert</t>
   </si>
@@ -33,18 +33,9 @@
     <t>Jahr Zusatz</t>
   </si>
   <si>
-    <t>Datum beginn</t>
-  </si>
-  <si>
-    <t>Datum ende</t>
-  </si>
-  <si>
     <t>sprache</t>
   </si>
   <si>
-    <t>land</t>
-  </si>
-  <si>
     <t>Titel</t>
   </si>
   <si>
@@ -54,9 +45,6 @@
     <t>Umfang 4060</t>
   </si>
   <si>
-    <t>4062 Maße</t>
-  </si>
-  <si>
     <t>Umfang zusatz</t>
   </si>
   <si>
@@ -120,9 +108,6 @@
     <t>ger</t>
   </si>
   <si>
-    <t>Deutschland</t>
-  </si>
-  <si>
     <t>Lineale</t>
   </si>
   <si>
@@ -141,33 +126,21 @@
     <t>Kugelschreiber</t>
   </si>
   <si>
-    <t>Sammlung von Visitenkarten und Flayern</t>
-  </si>
-  <si>
     <t xml:space="preserve">ger </t>
   </si>
   <si>
     <t>Visitenkarten und Handzettel</t>
   </si>
   <si>
-    <t>Plakat "Buchmesse 2023 nicht ohne Faber"</t>
-  </si>
-  <si>
     <t>Plakat</t>
   </si>
   <si>
-    <t>45 x 45</t>
-  </si>
-  <si>
     <t>USB Stick als Werbeartikel</t>
   </si>
   <si>
     <t>USB-Stick</t>
   </si>
   <si>
-    <t>5 x 10</t>
-  </si>
-  <si>
     <t>256 GB leer</t>
   </si>
   <si>
@@ -210,9 +183,6 @@
     <t>Schlüsselanhänger</t>
   </si>
   <si>
-    <t>5 x 5</t>
-  </si>
-  <si>
     <t>[nicht nach 2023]</t>
   </si>
   <si>
@@ -229,6 +199,39 @@
   </si>
   <si>
     <t>Textilien</t>
+  </si>
+  <si>
+    <t>Breite in cm</t>
+  </si>
+  <si>
+    <t>Länge in cm</t>
+  </si>
+  <si>
+    <t>Höhe 3D Objekte in cm</t>
+  </si>
+  <si>
+    <t>Plakat mit Aufschrift "Buchmesse 2023 nicht ohne Faber"</t>
+  </si>
+  <si>
+    <t>herkunft wenn erkennbar</t>
+  </si>
+  <si>
+    <t>Text 4019</t>
+  </si>
+  <si>
+    <t>Sammlung von Visitenkarten und Flyern</t>
+  </si>
+  <si>
+    <t>Materialarten 3D Objekte</t>
+  </si>
+  <si>
+    <t>Metall, Holz, Kunststoff, Textilien, Pappe/Papier, Glas, Keramik</t>
+  </si>
+  <si>
+    <t>Kunststoff / Metall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metall  </t>
   </si>
 </sst>
 </file>
@@ -548,42 +551,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="3" max="3" width="42.875" customWidth="1"/>
     <col min="4" max="4" width="7.875" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="7.875" customWidth="1"/>
-    <col min="8" max="8" width="8.125" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="9.75" customWidth="1"/>
-    <col min="11" max="11" width="8.875" customWidth="1"/>
-    <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="11.375" customWidth="1"/>
-    <col min="14" max="14" width="33.25" customWidth="1"/>
-    <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="7" customWidth="1"/>
+    <col min="6" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="12" max="12" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="14" max="14" width="53.25" customWidth="1"/>
+    <col min="15" max="15" width="11.375" customWidth="1"/>
+    <col min="16" max="16" width="33.25" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="18" max="18" width="12.875" customWidth="1"/>
+    <col min="20" max="20" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -595,256 +599,280 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>2023</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
       </c>
       <c r="D3">
         <v>2023</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3">
+        <v>52</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
-        <v>37</v>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>9</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>2023</v>
       </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4">
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4">
         <v>5</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="L4">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>2023</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <v>45</v>
+      </c>
+      <c r="L5">
+        <v>45</v>
+      </c>
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>2023</v>
       </c>
-      <c r="H6" t="s">
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" t="s">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>46</v>
       </c>
-      <c r="M6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>2023</v>
       </c>
-      <c r="J7">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" t="s">
-        <v>61</v>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -886,115 +914,115 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
